--- a/NoC RTL/doc/Signals list and description.xlsx
+++ b/NoC RTL/doc/Signals list and description.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9700" yWindow="0" windowWidth="14460" windowHeight="13760" tabRatio="257"/>
+    <workbookView xWindow="6320" yWindow="1760" windowWidth="14460" windowHeight="13760" tabRatio="257"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="171">
   <si>
     <t>SIGNAL NAME</t>
   </si>
@@ -504,6 +504,36 @@
   </si>
   <si>
     <t xml:space="preserve">Read data </t>
+  </si>
+  <si>
+    <t>address_route_n_i</t>
+  </si>
+  <si>
+    <t>address_route_s_i</t>
+  </si>
+  <si>
+    <t>address_route_e_i</t>
+  </si>
+  <si>
+    <t>address_route_w_i</t>
+  </si>
+  <si>
+    <t>address_route_l_i</t>
+  </si>
+  <si>
+    <t>Address of incoming port for north output</t>
+  </si>
+  <si>
+    <t>Address of incoming port for south output</t>
+  </si>
+  <si>
+    <t>Address of incoming port for east output</t>
+  </si>
+  <si>
+    <t>Address of incoming port for west output</t>
+  </si>
+  <si>
+    <t>Address of incoming port for local output</t>
   </si>
 </sst>
 </file>
@@ -548,8 +578,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="61">
+  <cellStyleXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -614,7 +658,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="61">
+  <cellStyles count="75">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -645,6 +689,13 @@
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -675,6 +726,13 @@
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1004,18 +1062,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D123"/>
+  <dimension ref="A1:D128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="A129" sqref="A129"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E249" sqref="E249"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1029,13 +1087,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="12"/>
-    <row r="3" spans="1:4" ht="12">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>88</v>
       </c>
@@ -1049,7 +1106,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="12">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>90</v>
       </c>
@@ -1063,7 +1120,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="12">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>92</v>
       </c>
@@ -1077,7 +1134,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="12">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>93</v>
       </c>
@@ -1091,7 +1148,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="12">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>94</v>
       </c>
@@ -1105,7 +1162,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="12">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>95</v>
       </c>
@@ -1119,7 +1176,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="12">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>96</v>
       </c>
@@ -1133,7 +1190,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="12">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -1147,7 +1204,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="12">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>57</v>
       </c>
@@ -1175,7 +1232,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="12">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -1189,7 +1246,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="12">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -1203,7 +1260,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="12">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>145</v>
       </c>
@@ -1217,7 +1274,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="12">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>146</v>
       </c>
@@ -1231,7 +1288,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="12">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>147</v>
       </c>
@@ -1245,7 +1302,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="12">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>148</v>
       </c>
@@ -1259,7 +1316,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="12">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>149</v>
       </c>
@@ -1273,14 +1330,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="12"/>
-    <row r="22" spans="1:4" ht="12"/>
-    <row r="23" spans="1:4" ht="12">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="12">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>98</v>
       </c>
@@ -1294,7 +1349,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="12">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>90</v>
       </c>
@@ -1308,7 +1363,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="12">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>99</v>
       </c>
@@ -1322,7 +1377,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="12">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>100</v>
       </c>
@@ -1336,7 +1391,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="12">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>101</v>
       </c>
@@ -1350,14 +1405,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="12"/>
-    <row r="30" spans="1:4" ht="12"/>
-    <row r="31" spans="1:4" ht="12">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="12">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>103</v>
       </c>
@@ -1371,7 +1424,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="12">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -1385,7 +1438,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="12">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -1399,7 +1452,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="12">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -1413,7 +1466,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="12">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -1427,7 +1480,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="12">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -1441,7 +1494,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="12">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -1455,7 +1508,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="12">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -1469,7 +1522,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="12">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -1483,7 +1536,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="12">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>23</v>
       </c>
@@ -1497,7 +1550,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="12">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>25</v>
       </c>
@@ -1512,13 +1565,12 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="12" customHeight="1"/>
-    <row r="44" spans="1:4" ht="12"/>
-    <row r="45" spans="1:4" ht="12">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="12">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>90</v>
       </c>
@@ -1532,7 +1584,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="12">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>98</v>
       </c>
@@ -1546,7 +1598,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="12">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>115</v>
       </c>
@@ -1560,7 +1612,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="12">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>116</v>
       </c>
@@ -1574,7 +1626,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="12">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>117</v>
       </c>
@@ -1588,14 +1640,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="12"/>
-    <row r="52" spans="1:4" ht="12"/>
-    <row r="53" spans="1:4" ht="12">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="12">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -1609,7 +1659,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="12">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -1623,7 +1673,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="12">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -1637,7 +1687,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="12">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -1651,7 +1701,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="12">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -1679,7 +1729,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="12">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>19</v>
       </c>
@@ -1693,7 +1743,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="12">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -1707,7 +1757,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="12">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>23</v>
       </c>
@@ -1721,7 +1771,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="12">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>25</v>
       </c>
@@ -1735,14 +1785,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="12"/>
-    <row r="65" spans="1:4" ht="12"/>
-    <row r="66" spans="1:4" ht="12">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="12">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>62</v>
       </c>
@@ -1756,7 +1804,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="12">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>64</v>
       </c>
@@ -1770,7 +1818,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="12">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -1784,7 +1832,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="12">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -1798,7 +1846,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="12">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -1812,7 +1860,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="12">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -1826,7 +1874,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="12">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -1840,7 +1888,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="12">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>76</v>
       </c>
@@ -1854,7 +1902,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="12">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>78</v>
       </c>
@@ -2361,71 +2409,141 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>51</v>
+        <v>161</v>
       </c>
       <c r="B119" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C119">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D119" t="s">
-        <v>123</v>
+        <v>166</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>52</v>
+        <v>162</v>
       </c>
       <c r="B120" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C120">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D120" t="s">
-        <v>124</v>
+        <v>167</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>53</v>
+        <v>163</v>
       </c>
       <c r="B121" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C121">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D121" t="s">
-        <v>125</v>
+        <v>168</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>54</v>
+        <v>164</v>
       </c>
       <c r="B122" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C122">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D122" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
+        <v>165</v>
+      </c>
+      <c r="B123" t="s">
+        <v>6</v>
+      </c>
+      <c r="C123">
+        <v>3</v>
+      </c>
+      <c r="D123" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>51</v>
+      </c>
+      <c r="B124" t="s">
+        <v>17</v>
+      </c>
+      <c r="C124">
+        <v>16</v>
+      </c>
+      <c r="D124" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>52</v>
+      </c>
+      <c r="B125" t="s">
+        <v>17</v>
+      </c>
+      <c r="C125">
+        <v>16</v>
+      </c>
+      <c r="D125" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>53</v>
+      </c>
+      <c r="B126" t="s">
+        <v>17</v>
+      </c>
+      <c r="C126">
+        <v>16</v>
+      </c>
+      <c r="D126" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>54</v>
+      </c>
+      <c r="B127" t="s">
+        <v>17</v>
+      </c>
+      <c r="C127">
+        <v>16</v>
+      </c>
+      <c r="D127" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
         <v>55</v>
       </c>
-      <c r="B123" t="s">
-        <v>17</v>
-      </c>
-      <c r="C123">
-        <v>16</v>
-      </c>
-      <c r="D123" t="s">
+      <c r="B128" t="s">
+        <v>17</v>
+      </c>
+      <c r="C128">
+        <v>16</v>
+      </c>
+      <c r="D128" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2450,7 +2568,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <headerFooter>
@@ -2471,7 +2589,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <headerFooter>
